--- a/Samples/NestedArray/sample.xlsx
+++ b/Samples/NestedArray/sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vs\mao\ExcelConverter\Samples\NestedArray\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CEDC280-4D60-4CD5-8F21-659C39F37183}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24E054A6-8674-4403-AB38-A05EAF19948B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EE972D09-B07F-4C87-AB50-7F2527D2F80A}"/>
   </bookViews>
@@ -54,15 +54,9 @@
     <t>b1</t>
   </si>
   <si>
-    <t>c1</t>
-  </si>
-  <si>
     <t>c2</t>
   </si>
   <si>
-    <t>c3</t>
-  </si>
-  <si>
     <t>a4</t>
   </si>
   <si>
@@ -90,9 +84,6 @@
     <t>cc1</t>
   </si>
   <si>
-    <t>cc2</t>
-  </si>
-  <si>
     <t>aa2</t>
   </si>
   <si>
@@ -115,6 +106,15 @@
   </si>
   <si>
     <t>prop#3</t>
+  </si>
+  <si>
+    <t>c1,d1,e1</t>
+  </si>
+  <si>
+    <t>c3,d3</t>
+  </si>
+  <si>
+    <t>cc2,dd3</t>
   </si>
 </sst>
 </file>
@@ -653,22 +653,22 @@
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
@@ -679,16 +679,16 @@
         <v>8</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
@@ -699,16 +699,16 @@
         <v>5</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -719,38 +719,38 @@
         <v>7</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>12</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>15</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
